--- a/Valor_Catastral/Data/Valor de construccion unitario habitacional naucalpan.xlsx
+++ b/Valor_Catastral/Data/Valor de construccion unitario habitacional naucalpan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\GEM\geoloc2\Valor_Catastral\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93582502-A9A1-449C-9FFB-804553533036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DFB893-5B13-40DB-BEFE-B4440F50A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1770" windowWidth="21600" windowHeight="11235" xr2:uid="{ED22A867-76D8-4D3E-B8AE-884CBA75AA0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED22A867-76D8-4D3E-B8AE-884CBA75AA0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>min</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>Buena  alta</t>
+  </si>
+  <si>
+    <t>Comercial economica</t>
+  </si>
+  <si>
+    <t>Comercial regular</t>
+  </si>
+  <si>
+    <t>Comercial buena</t>
+  </si>
+  <si>
+    <t>Comercial muy buena</t>
+  </si>
+  <si>
+    <t>Comercial lujo</t>
+  </si>
+  <si>
+    <t>Comercial departamental</t>
   </si>
 </sst>
 </file>
@@ -146,8 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1811C-7D20-4C0C-B53D-B51417D9A70B}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +802,90 @@
         <v>27337</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>250</v>
+      </c>
+      <c r="C23">
+        <v>1000000000000</v>
+      </c>
+      <c r="D23">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>250</v>
+      </c>
+      <c r="C24">
+        <v>1000000000000</v>
+      </c>
+      <c r="D24">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>250</v>
+      </c>
+      <c r="C25">
+        <v>1000000000000</v>
+      </c>
+      <c r="D25">
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>250</v>
+      </c>
+      <c r="C26">
+        <v>1000000000000</v>
+      </c>
+      <c r="D26">
+        <v>15591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>250</v>
+      </c>
+      <c r="C27">
+        <v>1000000000000</v>
+      </c>
+      <c r="D27">
+        <v>22138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+      <c r="C28">
+        <v>1000000000000</v>
+      </c>
+      <c r="D28">
+        <v>5591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
